--- a/biology/Botanique/Guibourtia_demeusei/Guibourtia_demeusei.xlsx
+++ b/biology/Botanique/Guibourtia_demeusei/Guibourtia_demeusei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Guibourtia demeusei, dont le nom commun est bubinga ou encore essingang au Cameroun[1], est un arbre présent en Afrique tropicale de l’Ouest, du Cameroun jusqu’en République centrafricaine, en passant par le Congo[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Guibourtia demeusei, dont le nom commun est bubinga ou encore essingang au Cameroun, est un arbre présent en Afrique tropicale de l’Ouest, du Cameroun jusqu’en République centrafricaine, en passant par le Congo.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Stature
-La taille varie de 25 à 40 mètres de haut. Le fût est droit, mesurant jusqu’à 20 mètres de haut et 1 mètre de diamètre[2].
+La taille varie de 25 à 40 mètres de haut. Le fût est droit, mesurant jusqu’à 20 mètres de haut et 1 mètre de diamètre.
 Bois et écorce
-Le bois au grain moyen est de couleur rosée ou brun rougeâtre et très finement veiné de rouge violacé[1].</t>
+Le bois au grain moyen est de couleur rosée ou brun rougeâtre et très finement veiné de rouge violacé.</t>
         </is>
       </c>
     </row>
@@ -544,10 +558,12 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Usages domestiques, artisanaux et industriels
-Le bois est utilisé en ébénisterie pour la fabrication de meubles de luxe, ainsi qu’en menuiserie intérieure et extérieure[1].</t>
+Le bois est utilisé en ébénisterie pour la fabrication de meubles de luxe, ainsi qu’en menuiserie intérieure et extérieure.</t>
         </is>
       </c>
     </row>
